--- a/public/upload/shops.xlsx
+++ b/public/upload/shops.xlsx
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Тогровая сеть</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Магазин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Город</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адрес</t>
+  </si>
   <si>
     <t xml:space="preserve">Moyo</t>
   </si>
@@ -77,12 +89,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,9 +137,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -137,6 +159,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -145,20 +227,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -172,18 +254,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
